--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -60,9 +60,9 @@
   <si>
     <t>{
     "total": 0,
-    "rows": null,
-    "message": "入参格式不符合标准，检查evidence：220301__第1份证据的属性！#: required key [attachments] not found",
-    "code": "0"
+    "message": "检验完成！",
+    "code": "1",
+    "rows": []
 }</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
   </si>
   <si>
     <t>{
-    "rows": null,
-    "message": "入参格式不符合标准，检查evidence：220301__第1份证据的属性！#: required key [attachments] not found",
-    "code": "0",
-    "total": 0
+    "total": 0,
+    "code": "1",
+    "rows": [],
+    "message": "检验完成！"
 }</t>
   </si>
 </sst>

--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="316" visibility="visible" windowHeight="12465" windowWidth="28245"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="316" visibility="visible" windowHeight="12465" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -40,7 +40,7 @@
     <t>result</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>extract</t>
   </si>
   <si>
     <t>判断讯问笔录是否缺失被讯问人现住址</t>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>{"Archive":{"caseCause":"1101","caseId":"zsgzesg","EvidenceTypes":{"220301":[{"contResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAWDwrAAAFzyHQhdc.engine","elleResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eADQ6DAAAAEoCbJx8.engine","evidenceId":"1649b7fa-c4fe-4a04-b7f2-3d597bc4c364","name":"证据一","ocrResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAEuCSAAGGCpTJRL4.engine"},{"contResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAWDwrAAAFzyHQhdc.engine","elleResult":"http://172.31.234.149:88/G1/M00/08/AC/rB_qlVy1cyyAP9sHAAAAEoCbJx8.engine","evidenceId":"1649b7fa-c4fe-4a04-b7f2-3d597bc4c365","name":"证据二","ocrResult":"http://172.31.234.149:88/G1/M00/0C/76/rB_qlVy5gM-ADj9dAAOMu_N3n_I.engine"}],"220501":[{"contResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAKeDFAAACCHRF93Q.engine","elleResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAa5anAAAAEoCbJx8.engine","evidenceId":"ad278629-c7f7-4467-8cba-3ff7577bb4f0","name":"证据三","ocrResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAPPQGAABx-KB4H7M.engine"}]},"caseType":"11"}}</t>
-  </si>
-  <si>
-    <t>缺失被讯问人现住址</t>
   </si>
   <si>
     <t>{
@@ -66,7 +63,13 @@
 }</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>{'total': 0, 'message': '检验完成！', 'code': '1', 'rows': []}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>{"name": "$..message","caseId":"code","caseCause":"$..total"}</t>
   </si>
   <si>
     <t>判断讯问笔录是否缺失被讯问人公民身份证号码</t>
@@ -75,15 +78,10 @@
     <t>/evidence-check/check/customCheck?checkCode=1</t>
   </si>
   <si>
-    <t>判断嫌疑人数量是否与义务告知书数量相等</t>
-  </si>
-  <si>
-    <t>{
-    "total": 0,
-    "code": "1",
-    "rows": [],
-    "message": "检验完成！"
-}</t>
+    <t>{"Archive":{"caseCause":"${caseCause}","caseId":"${caseId}","EvidenceTypes":{"220301":[{"contResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAWDwrAAAFzyHQhdc.engine","elleResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eADQ6DAAAAEoCbJx8.engine","evidenceId":"1649b7fa-c4fe-4a04-b7f2-3d597bc4c364","name":"${name}","ocrResult":"http://172.31.234.149:88//G1/M00/0C/0F/rB_qlVy4U3eAEuCSAAGGCpTJRL4.engine"}]},"caseType":"11"}}</t>
+  </si>
+  <si>
+    <t>{'message': '检验完成！', 'total': 0, 'rows': [], 'code': '1'}</t>
   </si>
 </sst>
 </file>
@@ -114,23 +112,123 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -144,115 +242,15 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -266,6 +264,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,12 +300,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,157 +354,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +474,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -486,30 +499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +556,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -578,10 +576,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="15" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -590,135 +588,135 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="13" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="18" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -746,15 +744,6 @@
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,8 +1093,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
@@ -1114,12 +1103,12 @@
     <col customWidth="1" max="2" min="2" style="2" width="27.225"/>
     <col customWidth="1" max="3" min="3" style="3" width="10.1083333333333"/>
     <col customWidth="1" max="4" min="4" style="3" width="36.625"/>
-    <col customWidth="1" max="5" min="5" style="12" width="44.125"/>
+    <col customWidth="1" max="5" min="5" style="4" width="92"/>
     <col customWidth="1" max="6" min="6" style="3" width="22.1083333333333"/>
-    <col customWidth="1" max="7" min="7" style="10" width="29"/>
-    <col customWidth="1" max="8" min="8" style="10" width="19.5"/>
-    <col customWidth="1" max="9" min="9" style="12" width="29.775"/>
-    <col customWidth="1" max="16384" min="10" style="12" width="9"/>
+    <col customWidth="1" max="7" min="7" style="5" width="29"/>
+    <col customWidth="1" max="8" min="8" style="5" width="19.5"/>
+    <col customWidth="1" max="9" min="9" style="4" width="41.625"/>
+    <col customWidth="1" max="16384" min="10" style="4" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:9">
@@ -1155,7 +1144,7 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1164,45 +1153,48 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="n"/>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="186" r="3" spans="1:9">
+    <row customHeight="1" ht="285" r="3" spans="1:9">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>16</v>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I3" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
